--- a/trustpilot-reviews/United Airlines (Airline Company) - Trustpilot Reviews.xlsx
+++ b/trustpilot-reviews/United Airlines (Airline Company) - Trustpilot Reviews.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesrurebeybinesen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafa/Projects/nlp-datasets/trustpilot-reviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB25D67-B7D2-D546-9F71-44B066036828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE801748-1DA4-C14F-93F5-E332C5E97144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Reviews" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reviews!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1175,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,3012 +1195,2008 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4">
         <v>44928</v>
       </c>
-      <c r="C2">
-        <f>LEN(A2)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="4">
         <v>44930</v>
       </c>
-      <c r="C3">
-        <f>LEN(A3)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>44929</v>
       </c>
-      <c r="C4">
-        <f>LEN(A4)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="4">
         <v>44931</v>
       </c>
-      <c r="C5">
-        <f>LEN(A5)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B6" s="4">
         <v>44933</v>
       </c>
-      <c r="C6">
-        <f>LEN(A6)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>44929</v>
       </c>
-      <c r="C7">
-        <f>LEN(A7)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="4">
         <v>44931</v>
       </c>
-      <c r="C8">
-        <f>LEN(A8)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4">
         <v>44929</v>
       </c>
-      <c r="C9">
-        <f>LEN(A9)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="4">
         <v>44931</v>
       </c>
-      <c r="C10">
-        <f>LEN(A10)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="4">
         <v>44931</v>
       </c>
-      <c r="C11">
-        <f>LEN(A11)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="4">
         <v>44933</v>
       </c>
-      <c r="C12">
-        <f>LEN(A12)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="4">
         <v>44932</v>
       </c>
-      <c r="C13">
-        <f>LEN(A13)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>44928</v>
       </c>
-      <c r="C14">
-        <f>LEN(A14)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B15" s="4">
         <v>44933</v>
       </c>
-      <c r="C15">
-        <f>LEN(A15)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="4">
         <v>44931</v>
       </c>
-      <c r="C16">
-        <f>LEN(A16)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="4">
         <v>44931</v>
       </c>
-      <c r="C17">
-        <f>LEN(A17)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B18" s="4">
         <v>44933</v>
       </c>
-      <c r="C18">
-        <f>LEN(A18)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="4">
         <v>44932</v>
       </c>
-      <c r="C19">
-        <f>LEN(A19)</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="4">
         <v>44931</v>
       </c>
-      <c r="C20">
-        <f>LEN(A20)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="4">
         <v>44931</v>
       </c>
-      <c r="C21">
-        <f>LEN(A21)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="4">
         <v>44933</v>
       </c>
-      <c r="C22">
-        <f>LEN(A22)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="4">
         <v>44931</v>
       </c>
-      <c r="C23">
-        <f>LEN(A23)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="4">
         <v>44932</v>
       </c>
-      <c r="C24">
-        <f>LEN(A24)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B25" s="4">
         <v>44933</v>
       </c>
-      <c r="C25">
-        <f>LEN(A25)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="4">
         <v>44931</v>
       </c>
-      <c r="C26">
-        <f>LEN(A26)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B27" s="4">
         <v>44933</v>
       </c>
-      <c r="C27">
-        <f>LEN(A27)</f>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B28" s="4">
         <v>44933</v>
       </c>
-      <c r="C28">
-        <f>LEN(A28)</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B29" s="4">
         <v>44934</v>
       </c>
-      <c r="C29">
-        <f>LEN(A29)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="4">
         <v>44931</v>
       </c>
-      <c r="C30">
-        <f>LEN(A30)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="4">
         <v>44933</v>
       </c>
-      <c r="C31">
-        <f>LEN(A31)</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B32" s="4">
         <v>44933</v>
       </c>
-      <c r="C32">
-        <f>LEN(A32)</f>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B33" s="4">
         <v>44933</v>
       </c>
-      <c r="C33">
-        <f>LEN(A33)</f>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B34" s="4">
         <v>44932</v>
       </c>
-      <c r="C34">
-        <f>LEN(A34)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B35" s="4">
         <v>44933</v>
       </c>
-      <c r="C35">
-        <f>LEN(A35)</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B36" s="4">
         <v>44934</v>
       </c>
-      <c r="C36">
-        <f>LEN(A36)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B37" s="4">
         <v>44933</v>
       </c>
-      <c r="C37">
-        <f>LEN(A37)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B38" s="4">
         <v>44934</v>
       </c>
-      <c r="C38">
-        <f>LEN(A38)</f>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="4">
         <v>44931</v>
       </c>
-      <c r="C39">
-        <f>LEN(A39)</f>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="4">
         <v>44930</v>
       </c>
-      <c r="C40">
-        <f>LEN(A40)</f>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B41" s="4">
         <v>44932</v>
       </c>
-      <c r="C41">
-        <f>LEN(A41)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="4">
         <v>44928</v>
       </c>
-      <c r="C42">
-        <f>LEN(A42)</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B43" s="4">
         <v>44933</v>
       </c>
-      <c r="C43">
-        <f>LEN(A43)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="4">
         <v>44929</v>
       </c>
-      <c r="C44">
-        <f>LEN(A44)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="4">
         <v>44930</v>
       </c>
-      <c r="C45">
-        <f>LEN(A45)</f>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B46" s="4">
         <v>44933</v>
       </c>
-      <c r="C46">
-        <f>LEN(A46)</f>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="4">
         <v>44931</v>
       </c>
-      <c r="C47">
-        <f>LEN(A47)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B48" s="4">
         <v>44933</v>
       </c>
-      <c r="C48">
-        <f>LEN(A48)</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B49" s="4">
         <v>44933</v>
       </c>
-      <c r="C49">
-        <f>LEN(A49)</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B50" s="4">
         <v>44934</v>
       </c>
-      <c r="C50">
-        <f>LEN(A50)</f>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="4">
         <v>44927</v>
       </c>
-      <c r="C51">
-        <f>LEN(A51)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="4">
         <v>44933</v>
       </c>
-      <c r="C52">
-        <f>LEN(A52)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B53" s="4">
         <v>44933</v>
       </c>
-      <c r="C53">
-        <f>LEN(A53)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B54" s="4">
         <v>44933</v>
       </c>
-      <c r="C54">
-        <f>LEN(A54)</f>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B55" s="4">
         <v>44933</v>
       </c>
-      <c r="C55">
-        <f>LEN(A55)</f>
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B56" s="4">
         <v>44933</v>
       </c>
-      <c r="C56">
-        <f>LEN(A56)</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B57" s="4">
         <v>44934</v>
       </c>
-      <c r="C57">
-        <f>LEN(A57)</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B58" s="4">
         <v>44933</v>
       </c>
-      <c r="C58">
-        <f>LEN(A58)</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B59" s="4">
         <v>44933</v>
       </c>
-      <c r="C59">
-        <f>LEN(A59)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B60" s="4">
         <v>44934</v>
       </c>
-      <c r="C60">
-        <f>LEN(A60)</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="4">
         <v>44928</v>
       </c>
-      <c r="C61">
-        <f>LEN(A61)</f>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B62" s="4">
         <v>44929</v>
       </c>
-      <c r="C62">
-        <f>LEN(A62)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B63" s="4">
         <v>44931</v>
       </c>
-      <c r="C63">
-        <f>LEN(A63)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B64" s="4">
         <v>44932</v>
       </c>
-      <c r="C64">
-        <f>LEN(A64)</f>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="4">
         <v>44931</v>
       </c>
-      <c r="C65">
-        <f>LEN(A65)</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B66" s="4">
         <v>44933</v>
       </c>
-      <c r="C66">
-        <f>LEN(A66)</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="4">
         <v>44929</v>
       </c>
-      <c r="C67">
-        <f>LEN(A67)</f>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B68" s="4">
         <v>44933</v>
       </c>
-      <c r="C68">
-        <f>LEN(A68)</f>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="4">
         <v>44932</v>
       </c>
-      <c r="C69">
-        <f>LEN(A69)</f>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="4">
         <v>44932</v>
       </c>
-      <c r="C70">
-        <f>LEN(A70)</f>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B71" s="4">
         <v>44933</v>
       </c>
-      <c r="C71">
-        <f>LEN(A71)</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="4">
         <v>44931</v>
       </c>
-      <c r="C72">
-        <f>LEN(A72)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B73" s="4">
         <v>44931</v>
       </c>
-      <c r="C73">
-        <f>LEN(A73)</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B74" s="4">
         <v>44933</v>
       </c>
-      <c r="C74">
-        <f>LEN(A74)</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B75" s="4">
         <v>44933</v>
       </c>
-      <c r="C75">
-        <f>LEN(A75)</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B76" s="4">
         <v>44930</v>
       </c>
-      <c r="C76">
-        <f>LEN(A76)</f>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B77" s="4">
         <v>44930</v>
       </c>
-      <c r="C77">
-        <f>LEN(A77)</f>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B78" s="4">
         <v>44933</v>
       </c>
-      <c r="C78">
-        <f>LEN(A78)</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B79" s="4">
         <v>44932</v>
       </c>
-      <c r="C79">
-        <f>LEN(A79)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B80" s="4">
         <v>44933</v>
       </c>
-      <c r="C80">
-        <f>LEN(A80)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="4">
         <v>44929</v>
       </c>
-      <c r="C81">
-        <f>LEN(A81)</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B82" s="4">
         <v>44932</v>
       </c>
-      <c r="C82">
-        <f>LEN(A82)</f>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="4">
         <v>44929</v>
       </c>
-      <c r="C83">
-        <f>LEN(A83)</f>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B84" s="4">
         <v>44934</v>
       </c>
-      <c r="C84">
-        <f>LEN(A84)</f>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B85" s="4">
         <v>44931</v>
       </c>
-      <c r="C85">
-        <f>LEN(A85)</f>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B86" s="4">
         <v>44931</v>
       </c>
-      <c r="C86">
-        <f>LEN(A86)</f>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="4">
         <v>44932</v>
       </c>
-      <c r="C87">
-        <f>LEN(A87)</f>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="4">
         <v>44933</v>
       </c>
-      <c r="C88">
-        <f>LEN(A88)</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B89" s="4">
         <v>44934</v>
       </c>
-      <c r="C89">
-        <f>LEN(A89)</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="4">
         <v>44929</v>
       </c>
-      <c r="C90">
-        <f>LEN(A90)</f>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B91" s="4">
         <v>44933</v>
       </c>
-      <c r="C91">
-        <f>LEN(A91)</f>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B92" s="4">
         <v>44931</v>
       </c>
-      <c r="C92">
-        <f>LEN(A92)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B93" s="4">
         <v>44930</v>
       </c>
-      <c r="C93">
-        <f>LEN(A93)</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B94" s="4">
         <v>44933</v>
       </c>
-      <c r="C94">
-        <f>LEN(A94)</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B95" s="4">
         <v>44931</v>
       </c>
-      <c r="C95">
-        <f>LEN(A95)</f>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B96" s="4">
         <v>44930</v>
       </c>
-      <c r="C96">
-        <f>LEN(A96)</f>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B97" s="4">
         <v>44929</v>
       </c>
-      <c r="C97">
-        <f>LEN(A97)</f>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B98" s="4">
         <v>44934</v>
       </c>
-      <c r="C98">
-        <f>LEN(A98)</f>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="4">
         <v>44933</v>
       </c>
-      <c r="C99">
-        <f>LEN(A99)</f>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B100" s="4">
         <v>44933</v>
       </c>
-      <c r="C100">
-        <f>LEN(A100)</f>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B101" s="4">
         <v>44929</v>
       </c>
-      <c r="C101">
-        <f>LEN(A101)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B102" s="4">
         <v>44933</v>
       </c>
-      <c r="C102">
-        <f>LEN(A102)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B103" s="4">
         <v>44933</v>
       </c>
-      <c r="C103">
-        <f>LEN(A103)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="4">
         <v>44927</v>
       </c>
-      <c r="C104">
-        <f>LEN(A104)</f>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B105" s="4">
         <v>44934</v>
       </c>
-      <c r="C105">
-        <f>LEN(A105)</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="4">
         <v>44928</v>
       </c>
-      <c r="C106">
-        <f>LEN(A106)</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B107" s="4">
         <v>44934</v>
       </c>
-      <c r="C107">
-        <f>LEN(A107)</f>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B108" s="4">
         <v>44933</v>
       </c>
-      <c r="C108">
-        <f>LEN(A108)</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B109" s="4">
         <v>44929</v>
       </c>
-      <c r="C109">
-        <f>LEN(A109)</f>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B110" s="4">
         <v>44932</v>
       </c>
-      <c r="C110">
-        <f>LEN(A110)</f>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B111" s="4">
         <v>44931</v>
       </c>
-      <c r="C111">
-        <f>LEN(A111)</f>
-        <v>393</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B112" s="4">
         <v>44933</v>
       </c>
-      <c r="C112">
-        <f>LEN(A112)</f>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B113" s="4">
         <v>44933</v>
       </c>
-      <c r="C113">
-        <f>LEN(A113)</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B114" s="4">
         <v>44929</v>
       </c>
-      <c r="C114">
-        <f>LEN(A114)</f>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B115" s="4">
         <v>44931</v>
       </c>
-      <c r="C115">
-        <f>LEN(A115)</f>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B116" s="4">
         <v>44933</v>
       </c>
-      <c r="C116">
-        <f>LEN(A116)</f>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B117" s="4">
         <v>44931</v>
       </c>
-      <c r="C117">
-        <f>LEN(A117)</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B118" s="4">
         <v>44934</v>
       </c>
-      <c r="C118">
-        <f>LEN(A118)</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B119" s="4">
         <v>44929</v>
       </c>
-      <c r="C119">
-        <f>LEN(A119)</f>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B120" s="4">
         <v>44933</v>
       </c>
-      <c r="C120">
-        <f>LEN(A120)</f>
-        <v>416</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B121" s="4">
         <v>44931</v>
       </c>
-      <c r="C121">
-        <f>LEN(A121)</f>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B122" s="4">
         <v>44933</v>
       </c>
-      <c r="C122">
-        <f>LEN(A122)</f>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B123" s="4">
         <v>44933</v>
       </c>
-      <c r="C123">
-        <f>LEN(A123)</f>
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B124" s="4">
         <v>44932</v>
       </c>
-      <c r="C124">
-        <f>LEN(A124)</f>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B125" s="4">
         <v>44930</v>
       </c>
-      <c r="C125">
-        <f>LEN(A125)</f>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B126" s="4">
         <v>44931</v>
       </c>
-      <c r="C126">
-        <f>LEN(A126)</f>
-        <v>436</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="4">
         <v>44932</v>
       </c>
-      <c r="C127">
-        <f>LEN(A127)</f>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B128" s="4">
         <v>44933</v>
       </c>
-      <c r="C128">
-        <f>LEN(A128)</f>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B129" s="4">
         <v>44933</v>
       </c>
-      <c r="C129">
-        <f>LEN(A129)</f>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B130" s="4">
         <v>44934</v>
       </c>
-      <c r="C130">
-        <f>LEN(A130)</f>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B131" s="4">
         <v>44933</v>
       </c>
-      <c r="C131">
-        <f>LEN(A131)</f>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B132" s="4">
         <v>44930</v>
       </c>
-      <c r="C132">
-        <f>LEN(A132)</f>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B133" s="4">
         <v>44934</v>
       </c>
-      <c r="C133">
-        <f>LEN(A133)</f>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B134" s="4">
         <v>44931</v>
       </c>
-      <c r="C134">
-        <f>LEN(A134)</f>
-        <v>464</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B135" s="4">
         <v>44929</v>
       </c>
-      <c r="C135">
-        <f>LEN(A135)</f>
-        <v>474</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B136" s="4">
         <v>44934</v>
       </c>
-      <c r="C136">
-        <f>LEN(A136)</f>
-        <v>476</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B137" s="4">
         <v>44933</v>
       </c>
-      <c r="C137">
-        <f>LEN(A137)</f>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B138" s="4">
         <v>44932</v>
       </c>
-      <c r="C138">
-        <f>LEN(A138)</f>
-        <v>492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B139" s="4">
         <v>44932</v>
       </c>
-      <c r="C139">
-        <f>LEN(A139)</f>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B140" s="4">
         <v>44931</v>
       </c>
-      <c r="C140">
-        <f>LEN(A140)</f>
-        <v>504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B141" s="4">
         <v>44931</v>
       </c>
-      <c r="C141">
-        <f>LEN(A141)</f>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B142" s="4">
         <v>44933</v>
       </c>
-      <c r="C142">
-        <f>LEN(A142)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B143" s="4">
         <v>44933</v>
       </c>
-      <c r="C143">
-        <f>LEN(A143)</f>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B144" s="4">
         <v>44930</v>
       </c>
-      <c r="C144">
-        <f>LEN(A144)</f>
-        <v>528</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B145" s="4">
         <v>44932</v>
       </c>
-      <c r="C145">
-        <f>LEN(A145)</f>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B146" s="4">
         <v>44931</v>
       </c>
-      <c r="C146">
-        <f>LEN(A146)</f>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B147" s="4">
         <v>44927</v>
       </c>
-      <c r="C147">
-        <f>LEN(A147)</f>
-        <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="4">
         <v>44928</v>
       </c>
-      <c r="C148">
-        <f>LEN(A148)</f>
-        <v>553</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B149" s="4">
         <v>44933</v>
       </c>
-      <c r="C149">
-        <f>LEN(A149)</f>
-        <v>553</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B150" s="4">
         <v>44933</v>
       </c>
-      <c r="C150">
-        <f>LEN(A150)</f>
-        <v>574</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B151" s="4">
         <v>44931</v>
       </c>
-      <c r="C151">
-        <f>LEN(A151)</f>
-        <v>575</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B152" s="4">
         <v>44929</v>
       </c>
-      <c r="C152">
-        <f>LEN(A152)</f>
-        <v>578</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B153" s="4">
         <v>44928</v>
       </c>
-      <c r="C153">
-        <f>LEN(A153)</f>
-        <v>579</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B154" s="4">
         <v>44933</v>
       </c>
-      <c r="C154">
-        <f>LEN(A154)</f>
-        <v>579</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B155" s="4">
         <v>44933</v>
       </c>
-      <c r="C155">
-        <f>LEN(A155)</f>
-        <v>580</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B156" s="4">
         <v>44928</v>
       </c>
-      <c r="C156">
-        <f>LEN(A156)</f>
-        <v>584</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B157" s="4">
         <v>44931</v>
       </c>
-      <c r="C157">
-        <f>LEN(A157)</f>
-        <v>587</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B158" s="4">
         <v>44927</v>
       </c>
-      <c r="C158">
-        <f>LEN(A158)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B159" s="4">
         <v>44931</v>
       </c>
-      <c r="C159">
-        <f>LEN(A159)</f>
-        <v>615</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B160" s="4">
         <v>44930</v>
       </c>
-      <c r="C160">
-        <f>LEN(A160)</f>
-        <v>621</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B161" s="4">
         <v>44933</v>
       </c>
-      <c r="C161">
-        <f>LEN(A161)</f>
-        <v>621</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B162" s="4">
         <v>44929</v>
       </c>
-      <c r="C162">
-        <f>LEN(A162)</f>
-        <v>623</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B163" s="4">
         <v>44930</v>
       </c>
-      <c r="C163">
-        <f>LEN(A163)</f>
-        <v>624</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B164" s="4">
         <v>44933</v>
       </c>
-      <c r="C164">
-        <f>LEN(A164)</f>
-        <v>624</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B165" s="4">
         <v>44932</v>
       </c>
-      <c r="C165">
-        <f>LEN(A165)</f>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B166" s="4">
         <v>44932</v>
       </c>
-      <c r="C166">
-        <f>LEN(A166)</f>
-        <v>631</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B167" s="4">
         <v>44932</v>
       </c>
-      <c r="C167">
-        <f>LEN(A167)</f>
-        <v>635</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B168" s="4">
         <v>44932</v>
       </c>
-      <c r="C168">
-        <f>LEN(A168)</f>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B169" s="4">
         <v>44934</v>
       </c>
-      <c r="C169">
-        <f>LEN(A169)</f>
-        <v>642</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B170" s="4">
         <v>44933</v>
       </c>
-      <c r="C170">
-        <f>LEN(A170)</f>
-        <v>661</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B171" s="4">
         <v>44933</v>
       </c>
-      <c r="C171">
-        <f>LEN(A171)</f>
-        <v>670</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B172" s="4">
         <v>44933</v>
       </c>
-      <c r="C172">
-        <f>LEN(A172)</f>
-        <v>689</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B173" s="4">
         <v>44931</v>
       </c>
-      <c r="C173">
-        <f>LEN(A173)</f>
-        <v>696</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B174" s="4">
         <v>44931</v>
       </c>
-      <c r="C174">
-        <f>LEN(A174)</f>
-        <v>699</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B175" s="4">
         <v>44933</v>
       </c>
-      <c r="C175">
-        <f>LEN(A175)</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B176" s="4">
         <v>44930</v>
       </c>
-      <c r="C176">
-        <f>LEN(A176)</f>
-        <v>714</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B177" s="4">
         <v>44928</v>
       </c>
-      <c r="C177">
-        <f>LEN(A177)</f>
-        <v>724</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B178" s="4">
         <v>44934</v>
       </c>
-      <c r="C178">
-        <f>LEN(A178)</f>
-        <v>734</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B179" s="4">
         <v>44933</v>
       </c>
-      <c r="C179">
-        <f>LEN(A179)</f>
-        <v>735</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B180" s="4">
         <v>44930</v>
       </c>
-      <c r="C180">
-        <f>LEN(A180)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B181" s="4">
         <v>44931</v>
       </c>
-      <c r="C181">
-        <f>LEN(A181)</f>
-        <v>755</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B182" s="4">
         <v>44929</v>
       </c>
-      <c r="C182">
-        <f>LEN(A182)</f>
-        <v>757</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B183" s="4">
         <v>44931</v>
       </c>
-      <c r="C183">
-        <f>LEN(A183)</f>
-        <v>763</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B184" s="4">
         <v>44933</v>
       </c>
-      <c r="C184">
-        <f>LEN(A184)</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B185" s="4">
         <v>44932</v>
       </c>
-      <c r="C185">
-        <f>LEN(A185)</f>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B186" s="4">
         <v>44933</v>
       </c>
-      <c r="C186">
-        <f>LEN(A186)</f>
-        <v>829</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B187" s="4">
         <v>44932</v>
       </c>
-      <c r="C187">
-        <f>LEN(A187)</f>
-        <v>842</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B188" s="4">
         <v>44931</v>
       </c>
-      <c r="C188">
-        <f>LEN(A188)</f>
-        <v>853</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B189" s="4">
         <v>44934</v>
       </c>
-      <c r="C189">
-        <f>LEN(A189)</f>
-        <v>853</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B190" s="4">
         <v>44932</v>
       </c>
-      <c r="C190">
-        <f>LEN(A190)</f>
-        <v>855</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B191" s="4">
         <v>44931</v>
       </c>
-      <c r="C191">
-        <f>LEN(A191)</f>
-        <v>856</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B192" s="4">
         <v>44930</v>
       </c>
-      <c r="C192">
-        <f>LEN(A192)</f>
-        <v>857</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="4">
         <v>44927</v>
       </c>
-      <c r="C193">
-        <f>LEN(A193)</f>
-        <v>862</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B194" s="4">
         <v>44932</v>
       </c>
-      <c r="C194">
-        <f>LEN(A194)</f>
-        <v>873</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B195" s="4">
         <v>44934</v>
       </c>
-      <c r="C195">
-        <f>LEN(A195)</f>
-        <v>883</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B196" s="4">
         <v>44928</v>
       </c>
-      <c r="C196">
-        <f>LEN(A196)</f>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B197" s="4">
         <v>44927</v>
       </c>
-      <c r="C197">
-        <f>LEN(A197)</f>
-        <v>896</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B198" s="4">
         <v>44933</v>
       </c>
-      <c r="C198">
-        <f>LEN(A198)</f>
-        <v>899</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B199" s="4">
         <v>44931</v>
       </c>
-      <c r="C199">
-        <f>LEN(A199)</f>
-        <v>902</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B200" s="4">
         <v>44931</v>
       </c>
-      <c r="C200">
-        <f>LEN(A200)</f>
-        <v>903</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B201" s="4">
         <v>44934</v>
       </c>
-      <c r="C201">
-        <f>LEN(A201)</f>
-        <v>922</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B202" s="4">
         <v>44933</v>
       </c>
-      <c r="C202">
-        <f>LEN(A202)</f>
-        <v>941</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B203" s="4">
         <v>44933</v>
       </c>
-      <c r="C203">
-        <f>LEN(A203)</f>
-        <v>949</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B204" s="4">
         <v>44934</v>
       </c>
-      <c r="C204">
-        <f>LEN(A204)</f>
-        <v>957</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B205" s="4">
         <v>44931</v>
       </c>
-      <c r="C205">
-        <f>LEN(A205)</f>
-        <v>959</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B206" s="4">
         <v>44930</v>
       </c>
-      <c r="C206">
-        <f>LEN(A206)</f>
-        <v>964</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B207" s="4">
         <v>44932</v>
       </c>
-      <c r="C207">
-        <f>LEN(A207)</f>
-        <v>968</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B208" s="4">
         <v>44931</v>
       </c>
-      <c r="C208">
-        <f>LEN(A208)</f>
-        <v>988</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B209" s="4">
         <v>44932</v>
       </c>
-      <c r="C209">
-        <f>LEN(A209)</f>
-        <v>992</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B210" s="4">
         <v>44931</v>
       </c>
-      <c r="C210">
-        <f>LEN(A210)</f>
-        <v>998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B211" s="4">
         <v>44932</v>
       </c>
-      <c r="C211">
-        <f>LEN(A211)</f>
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B212" s="4">
         <v>44929</v>
       </c>
-      <c r="C212">
-        <f>LEN(A212)</f>
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B213" s="4">
         <v>44930</v>
       </c>
-      <c r="C213">
-        <f>LEN(A213)</f>
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B214" s="4">
         <v>44929</v>
       </c>
-      <c r="C214">
-        <f>LEN(A214)</f>
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B215" s="4">
         <v>44931</v>
       </c>
-      <c r="C215">
-        <f>LEN(A215)</f>
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B216" s="4">
         <v>44934</v>
       </c>
-      <c r="C216">
-        <f>LEN(A216)</f>
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B217" s="4">
         <v>44933</v>
       </c>
-      <c r="C217">
-        <f>LEN(A217)</f>
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B218" s="4">
         <v>44929</v>
       </c>
-      <c r="C218">
-        <f>LEN(A218)</f>
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B219" s="4">
         <v>44931</v>
       </c>
-      <c r="C219">
-        <f>LEN(A219)</f>
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B220" s="4">
         <v>44927</v>
       </c>
-      <c r="C220">
-        <f>LEN(A220)</f>
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B221" s="4">
         <v>44933</v>
       </c>
-      <c r="C221">
-        <f>LEN(A221)</f>
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B222" s="4">
         <v>44930</v>
       </c>
-      <c r="C222">
-        <f>LEN(A222)</f>
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B223" s="4">
         <v>44931</v>
       </c>
-      <c r="C223">
-        <f>LEN(A223)</f>
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B224" s="4">
         <v>44933</v>
       </c>
-      <c r="C224">
-        <f>LEN(A224)</f>
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B225" s="4">
         <v>44933</v>
       </c>
-      <c r="C225">
-        <f>LEN(A225)</f>
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B226" s="4">
         <v>44932</v>
       </c>
-      <c r="C226">
-        <f>LEN(A226)</f>
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B227" s="4">
         <v>44933</v>
       </c>
-      <c r="C227">
-        <f>LEN(A227)</f>
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B228" s="4">
         <v>44932</v>
       </c>
-      <c r="C228">
-        <f>LEN(A228)</f>
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B229" s="4">
         <v>44931</v>
       </c>
-      <c r="C229">
-        <f>LEN(A229)</f>
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B230" s="4">
         <v>44932</v>
       </c>
-      <c r="C230">
-        <f>LEN(A230)</f>
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B231" s="4">
         <v>44933</v>
       </c>
-      <c r="C231">
-        <f>LEN(A231)</f>
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B232" s="4">
         <v>44933</v>
       </c>
-      <c r="C232">
-        <f>LEN(A232)</f>
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B233" s="4">
         <v>44932</v>
       </c>
-      <c r="C233">
-        <f>LEN(A233)</f>
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B234" s="4">
         <v>44927</v>
       </c>
-      <c r="C234">
-        <f>LEN(A234)</f>
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B235" s="4">
         <v>44934</v>
       </c>
-      <c r="C235">
-        <f>LEN(A235)</f>
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B236" s="4">
         <v>44931</v>
       </c>
-      <c r="C236">
-        <f>LEN(A236)</f>
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B237" s="4">
         <v>44927</v>
       </c>
-      <c r="C237">
-        <f>LEN(A237)</f>
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B238" s="4">
         <v>44931</v>
       </c>
-      <c r="C238">
-        <f>LEN(A238)</f>
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B239" s="4">
         <v>44929</v>
       </c>
-      <c r="C239">
-        <f>LEN(A239)</f>
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B240" s="4">
         <v>44933</v>
       </c>
-      <c r="C240">
-        <f>LEN(A240)</f>
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="4">
         <v>44934</v>
       </c>
-      <c r="C241">
-        <f>LEN(A241)</f>
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B242" s="4">
         <v>44933</v>
       </c>
-      <c r="C242">
-        <f>LEN(A242)</f>
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B243" s="4">
         <v>44931</v>
       </c>
-      <c r="C243">
-        <f>LEN(A243)</f>
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B244" s="4">
         <v>44931</v>
       </c>
-      <c r="C244">
-        <f>LEN(A244)</f>
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B245" s="4">
         <v>44932</v>
       </c>
-      <c r="C245">
-        <f>LEN(A245)</f>
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B246" s="4">
         <v>44931</v>
       </c>
-      <c r="C246">
-        <f>LEN(A246)</f>
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B247" s="4">
         <v>44928</v>
       </c>
-      <c r="C247">
-        <f>LEN(A247)</f>
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B248" s="4">
         <v>44931</v>
       </c>
-      <c r="C248">
-        <f>LEN(A248)</f>
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B249" s="4">
         <v>44933</v>
       </c>
-      <c r="C249">
-        <f>LEN(A249)</f>
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B250" s="4">
         <v>44933</v>
       </c>
-      <c r="C250">
-        <f>LEN(A250)</f>
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B251" s="4">
         <v>44931</v>
       </c>
-      <c r="C251">
-        <f>LEN(A251)</f>
-        <v>4310</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C261">
-      <sortCondition ref="C1:C261"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>